--- a/medicine/Maladies infectieuses/Antiscrofuleux/Antiscrofuleux.xlsx
+++ b/medicine/Maladies infectieuses/Antiscrofuleux/Antiscrofuleux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On désigne par antiscrofuleux un groupe de médicaments et de préparations diverses, qui était autrefois utilisé dans le traitement des écrouelles (ou scrofules), nom désuet d’une maladie tuberculeuse provoquant des fistules purulentes localisées sur les ganglions lymphatiques du cou (adénopathie). Par exemple, la gentiane jaune était appliquée aux malades.
 Ces traitements n'ont plus cours aujourd'hui, et ils appartiennent à l'histoire de la médecine.
